--- a/Project_Portfolio_Management/Project_Data.xlsx
+++ b/Project_Portfolio_Management/Project_Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniancu/Dropbox/Academic/INSEAD/Teaching/2019/ARM_Fonty/Cases/Project Management/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\Academic\INSEAD\Teaching\2021\ARM_FBL_March\Cases\Project Portfolio Management\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8E22AE-27E4-1544-AD7E-E1DB25BA27B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D594B9-62A6-4B5C-89C5-4B997F5470BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="740" windowWidth="22860" windowHeight="12940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3440" yWindow="2240" windowWidth="33070" windowHeight="16870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
+    <sheet name="Resources" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>A</t>
   </si>
@@ -95,9 +96,6 @@
     <t>Engineers</t>
   </si>
   <si>
-    <t>Field Workers</t>
-  </si>
-  <si>
     <t>Support</t>
   </si>
   <si>
@@ -117,6 +115,24 @@
   </si>
   <si>
     <t>Capital_Required</t>
+  </si>
+  <si>
+    <t>January-March</t>
+  </si>
+  <si>
+    <t>April-June</t>
+  </si>
+  <si>
+    <t>July-September</t>
+  </si>
+  <si>
+    <t>October-December</t>
+  </si>
+  <si>
+    <t>Field_Workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field_Workers </t>
   </si>
 </sst>
 </file>
@@ -126,9 +142,16 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -141,6 +164,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,11 +199,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,11 +553,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
@@ -525,12 +570,12 @@
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="44.25" customHeight="1">
+    <row r="1" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
@@ -545,16 +590,16 @@
         <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -562,7 +607,7 @@
         <v>4015</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -583,7 +628,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -591,7 +636,7 @@
         <v>3623</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>7</v>
@@ -612,7 +657,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -620,7 +665,7 @@
         <v>3847</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>4</v>
@@ -641,7 +686,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -649,7 +694,7 @@
         <v>4058</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -670,7 +715,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -678,7 +723,7 @@
         <v>11182</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>10</v>
@@ -699,7 +744,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -707,7 +752,7 @@
         <v>4858</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -728,7 +773,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -736,7 +781,7 @@
         <v>5379</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -757,7 +802,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -765,7 +810,7 @@
         <v>16203</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -786,15 +831,15 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>1839</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -817,15 +862,15 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>8298</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -852,4 +897,92 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514D342C-1378-46EF-8919-539B8C592812}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6">
+        <v>120</v>
+      </c>
+      <c r="C3" s="6">
+        <v>150</v>
+      </c>
+      <c r="D3" s="6">
+        <v>150</v>
+      </c>
+      <c r="E3" s="6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6">
+        <v>50</v>
+      </c>
+      <c r="C4" s="6">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6">
+        <v>40</v>
+      </c>
+      <c r="E4" s="6">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project_Portfolio_Management/Project_Data.xlsx
+++ b/Project_Portfolio_Management/Project_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\Academic\INSEAD\Teaching\2021\ARM_FBL_March\Cases\Project Portfolio Management\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniancu/Dropbox/Academic/INSEAD/Teaching/2021/ARM_FBL_March/airm/Project_Portfolio_Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D594B9-62A6-4B5C-89C5-4B997F5470BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1642CBF-9895-7C46-B734-DF4F55287B2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="2240" windowWidth="33070" windowHeight="16870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>A</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Field_Workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Field_Workers </t>
   </si>
 </sst>
 </file>
@@ -553,11 +550,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
@@ -570,7 +567,7 @@
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -599,7 +596,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -628,7 +625,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -657,7 +654,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -686,7 +683,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,7 +712,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -744,7 +741,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -773,7 +770,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -802,7 +799,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -831,7 +828,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -862,7 +859,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -903,20 +900,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514D342C-1378-46EF-8919-539B8C592812}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>20</v>
@@ -931,7 +927,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -948,9 +944,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <v>120</v>
@@ -965,7 +961,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
